--- a/public/Phòng.xlsx
+++ b/public/Phòng.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khu nhà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần khu nhà và loại phòng: xem mã khu nhà và mã loại phòng từ hai bảng khu nhà và loại phòng sau đó điền chính xác mã vào 2 ô tương ứng.</t>
   </si>
 </sst>
 </file>
@@ -32,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -60,6 +70,22 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -105,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -114,7 +140,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,42 +172,47 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -187,4 +226,46 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>